--- a/Excel/Global/Test/Test -- 测试用.xlsx
+++ b/Excel/Global/Test/Test -- 测试用.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MRFramework\Excel\Global\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\TowerDefenseDemo\Excel\Global\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DFBA33-830D-424C-AA71-102049E7BA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5180A8A6-A59F-40FB-A2D5-25BA8A4B3089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6570" yWindow="3780" windowWidth="21945" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestConfig" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,21 @@
   </si>
   <si>
     <t>2.7, 3.4, 8.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+  </si>
+  <si>
+    <t>ListInt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2, 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -553,14 +568,14 @@
     <col min="5" max="5" width="29.5" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="23.125" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="30" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="19.75" customWidth="1"/>
+    <col min="8" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
+    <col min="11" max="11" width="30" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -586,15 +601,18 @@
         <v>26</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -620,15 +638,18 @@
         <v>27</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -641,8 +662,9 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -667,10 +689,13 @@
       <c r="H4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -696,13 +721,16 @@
         <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -728,13 +756,16 @@
         <v>29</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -760,13 +791,16 @@
         <v>29</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -775,7 +809,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -784,7 +818,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -793,7 +827,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -802,7 +836,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -811,7 +845,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -820,7 +854,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -829,7 +863,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -838,7 +872,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -846,7 +880,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -855,7 +889,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -864,7 +898,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -873,7 +907,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -882,7 +916,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -891,7 +925,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -900,7 +934,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -909,8 +943,9 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -919,8 +954,9 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -929,8 +965,9 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -939,8 +976,9 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -949,8 +987,9 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -959,8 +998,9 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -969,8 +1009,9 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -979,8 +1020,9 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -989,8 +1031,9 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -999,8 +1042,9 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1009,8 +1053,9 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1019,8 +1064,9 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1029,8 +1075,9 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1039,8 +1086,9 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1049,8 +1097,9 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1059,8 +1108,9 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1069,8 +1119,9 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1079,8 +1130,9 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1089,8 +1141,9 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1099,8 +1152,9 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1109,8 +1163,9 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1118,7 +1173,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1126,7 +1181,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1134,7 +1189,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1142,7 +1197,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
